--- a/artfynd/A 24219-2020.xlsx
+++ b/artfynd/A 24219-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815382</v>
+        <v>111814564</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575426.7785677944</v>
+        <v>575483.7347557235</v>
       </c>
       <c r="R2" t="n">
-        <v>7021168.583593176</v>
+        <v>7021140.240290206</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111814564</v>
+        <v>111815275</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575483.7347557235</v>
+        <v>575366.0119675922</v>
       </c>
       <c r="R3" t="n">
-        <v>7021140.240290206</v>
+        <v>7021205.832316286</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815275</v>
+        <v>111815382</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575366.0119675922</v>
+        <v>575426.7785677944</v>
       </c>
       <c r="R4" t="n">
-        <v>7021205.832316286</v>
+        <v>7021168.583593176</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 24219-2020.xlsx
+++ b/artfynd/A 24219-2020.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815275</v>
+        <v>111815382</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575366.0119675922</v>
+        <v>575426.7785677944</v>
       </c>
       <c r="R3" t="n">
-        <v>7021205.832316286</v>
+        <v>7021168.583593176</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815382</v>
+        <v>111815275</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575426.7785677944</v>
+        <v>575366.0119675922</v>
       </c>
       <c r="R4" t="n">
-        <v>7021168.583593176</v>
+        <v>7021205.832316286</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 24219-2020.xlsx
+++ b/artfynd/A 24219-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111814564</v>
+        <v>111815275</v>
       </c>
       <c r="B2" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575483.7347557235</v>
+        <v>575366.0119675922</v>
       </c>
       <c r="R2" t="n">
-        <v>7021140.240290206</v>
+        <v>7021205.832316286</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815382</v>
+        <v>111814564</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575426.7785677944</v>
+        <v>575483.7347557235</v>
       </c>
       <c r="R3" t="n">
-        <v>7021168.583593176</v>
+        <v>7021140.240290206</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815275</v>
+        <v>111815382</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575366.0119675922</v>
+        <v>575426.7785677944</v>
       </c>
       <c r="R4" t="n">
-        <v>7021205.832316286</v>
+        <v>7021168.583593176</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 24219-2020.xlsx
+++ b/artfynd/A 24219-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815275</v>
+        <v>111814564</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575366.0119675922</v>
+        <v>575483.7347557235</v>
       </c>
       <c r="R2" t="n">
-        <v>7021205.832316286</v>
+        <v>7021140.240290206</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111814564</v>
+        <v>111815275</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575483.7347557235</v>
+        <v>575366.0119675922</v>
       </c>
       <c r="R3" t="n">
-        <v>7021140.240290206</v>
+        <v>7021205.832316286</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 24219-2020.xlsx
+++ b/artfynd/A 24219-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111814564</v>
+        <v>111815275</v>
       </c>
       <c r="B2" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575483.7347557235</v>
+        <v>575366.0119675922</v>
       </c>
       <c r="R2" t="n">
-        <v>7021140.240290206</v>
+        <v>7021205.832316286</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815275</v>
+        <v>111815382</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575366.0119675922</v>
+        <v>575426.7785677944</v>
       </c>
       <c r="R3" t="n">
-        <v>7021205.832316286</v>
+        <v>7021168.583593176</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815382</v>
+        <v>111814564</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575426.7785677944</v>
+        <v>575483.7347557235</v>
       </c>
       <c r="R4" t="n">
-        <v>7021168.583593176</v>
+        <v>7021140.240290206</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 24219-2020.xlsx
+++ b/artfynd/A 24219-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815275</v>
+        <v>111815382</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575366.0119675922</v>
+        <v>575426.7785677944</v>
       </c>
       <c r="R2" t="n">
-        <v>7021205.832316286</v>
+        <v>7021168.583593176</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815382</v>
+        <v>111815275</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575426.7785677944</v>
+        <v>575366.0119675922</v>
       </c>
       <c r="R3" t="n">
-        <v>7021168.583593176</v>
+        <v>7021205.832316286</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 24219-2020.xlsx
+++ b/artfynd/A 24219-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815382</v>
+        <v>111814564</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575426.7785677944</v>
+        <v>575483.7347557235</v>
       </c>
       <c r="R2" t="n">
-        <v>7021168.583593176</v>
+        <v>7021140.240290206</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815275</v>
+        <v>111815382</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575366.0119675922</v>
+        <v>575426.7785677944</v>
       </c>
       <c r="R3" t="n">
-        <v>7021205.832316286</v>
+        <v>7021168.583593176</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111814564</v>
+        <v>111815275</v>
       </c>
       <c r="B4" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575483.7347557235</v>
+        <v>575366.0119675922</v>
       </c>
       <c r="R4" t="n">
-        <v>7021140.240290206</v>
+        <v>7021205.832316286</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 24219-2020.xlsx
+++ b/artfynd/A 24219-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111814564</v>
+        <v>111815382</v>
       </c>
       <c r="B2" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575483.7347557235</v>
+        <v>575426.7785677944</v>
       </c>
       <c r="R2" t="n">
-        <v>7021140.240290206</v>
+        <v>7021168.583593176</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111815382</v>
+        <v>111814564</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575426.7785677944</v>
+        <v>575483.7347557235</v>
       </c>
       <c r="R3" t="n">
-        <v>7021168.583593176</v>
+        <v>7021140.240290206</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 24219-2020.xlsx
+++ b/artfynd/A 24219-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111815382</v>
+        <v>111814564</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575426.7785677944</v>
+        <v>575484</v>
       </c>
       <c r="R2" t="n">
-        <v>7021168.583593176</v>
+        <v>7021140</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>18:33</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111814564</v>
+        <v>111815275</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575483.7347557235</v>
+        <v>575366</v>
       </c>
       <c r="R3" t="n">
-        <v>7021140.240290206</v>
+        <v>7021206</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>18:27</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111815275</v>
+        <v>111815382</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575366.0119675922</v>
+        <v>575427</v>
       </c>
       <c r="R4" t="n">
-        <v>7021205.832316286</v>
+        <v>7021169</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>18:27</t>
+          <t>18:33</t>
         </is>
       </c>
       <c r="AD4" t="b">
